--- a/biology/Botanique/Pinellia/Pinellia.xlsx
+++ b/biology/Botanique/Pinellia/Pinellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinellia est un genre de la famille des Araceae, apparenté aux arisémes (Arisaema). Les quelque 10 espèces sont originaires d’Extrême Orient (Chine, Corée, et Japon).
 Les Pinellia se différencient des arisémes par le fait que leurs feuilles n’entourent pas la base de la tige. La spathe élancée, qui ressemble à celle de Arisaema dracontium, est largement dépassée par le spadice étroit et dressé ; le tout évoquant une tête de serpent.
@@ -512,18 +524,20 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pinellia ternata (Thunb.) Makino ex Breitenbach
 Pinellia cordata N.E. Br. (Syn. Pinellia browniana Dunn) à feuilles cordées
 Pinellia integrifolia N.E. Br. à feuilles hastées
-Pinellia koreana K.H. Tae &amp; J.H. Kim[1]
+Pinellia koreana K.H. Tae &amp; J.H. Kim
 Pinellia pedatisecta Schott (Syn. Pinellia wawrae Engl.) à feuilles digitées, comme celles d’Arisaema dracontium
 Pinellia peltata C. Pei à feuilles peltées
 Pinellia polyphylla S.L. Hu
 Pinellia tripartita (Blume) Schott à feuilles trifoliées acuminées
 Pinellia yaoluopingensis X.H. Guo &amp; X.L. Liu
-Pinellia zhiguiensis[2]</t>
+Pinellia zhiguiensis</t>
         </is>
       </c>
     </row>
@@ -551,7 +565,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pinellia, moyennement rustiques, sont rarement cultivées chez nous.
 Pinellia ternata, qui produit des bulbilles à la base du pétiole et au point d’union des trois folioles, peut devenir envahissante voire se comporter via le sarclage comme une véritable mauvaise herbe. Les autres espèces ne présentent pas cet inconvénient.
